--- a/models/calculation engines/AL quarterly chart pack/Inputs/Data input annual.xlsx
+++ b/models/calculation engines/AL quarterly chart pack/Inputs/Data input annual.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOHN\Desktop\Python Data Project\Project5\New AL\Inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268B8776-F8EF-4D2F-A301-4A950496C711}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5985" xr2:uid="{8B4B760B-7CCB-4832-92E0-7BAC9114C8E3}"/>
+    <workbookView windowWidth="20490" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -48,26 +37,181 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,12 +232,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,36 +440,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -188,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -221,26 +837,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -273,23 +872,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,26 +1013,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85DCEC4-61D3-4AD7-89F5-1F3B8D1ADF2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,432 +1047,432 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>4.17</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>4.3081569999999996</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>4.308157</v>
+      </c>
+      <c r="F2" s="2">
         <v>3.50935</v>
       </c>
-      <c r="G2" s="9">
-        <v>2.7793749999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>2.779375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>4.202</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>4.6916640000000003</v>
-      </c>
-      <c r="F3" s="9">
-        <v>4.2215499999999997</v>
-      </c>
-      <c r="G3" s="9">
-        <v>3.3802509999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>4.691664</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.22155</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.380251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>5.165</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>5.4357340000000001</v>
-      </c>
-      <c r="F4" s="9">
-        <v>5.3576499999999996</v>
-      </c>
-      <c r="G4" s="9">
-        <v>4.3135079999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>5.435734</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.35765</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.313508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="3">
-        <v>5.7350000000000003</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>6.1796480000000003</v>
-      </c>
-      <c r="F5" s="9">
-        <v>7.3968499999999997</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5.5642440000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>5.735</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>6.179648</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.39685</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.564244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="3">
-        <v>6.3949999999999996</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>6.9678519999999997</v>
-      </c>
-      <c r="F6" s="9">
-        <v>8.8042499999999997</v>
-      </c>
-      <c r="G6" s="9">
-        <v>6.7082829999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" s="1">
+        <v>6.395</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>6.967852</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.80425</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.708283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
         <v>2005</v>
       </c>
       <c r="B7" s="4">
         <v>8.9</v>
       </c>
       <c r="C7" s="4">
-        <v>6.3949999999999996</v>
+        <v>6.395</v>
       </c>
       <c r="D7" s="4">
-        <v>8.4854885499999995</v>
-      </c>
-      <c r="F7" s="10">
-        <v>9.7187999999999999</v>
-      </c>
-      <c r="G7" s="10">
-        <v>8.0737850000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+        <v>8.48548855</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.7188</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8.073785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>2006</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>18.695</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>8.9</v>
       </c>
-      <c r="D8" s="5">
-        <v>13.442812999999999</v>
-      </c>
-      <c r="F8" s="6">
-        <v>11.725099999999999</v>
-      </c>
-      <c r="G8" s="6">
-        <v>9.6586653636363593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="D8" s="7">
+        <v>13.442813</v>
+      </c>
+      <c r="F8" s="8">
+        <v>11.7251</v>
+      </c>
+      <c r="G8" s="8">
+        <v>9.65866536363636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
         <v>2007</v>
       </c>
-      <c r="B9" s="5">
-        <v>27.295000000000002</v>
-      </c>
-      <c r="C9" s="5">
-        <v>18.815000000000001</v>
-      </c>
-      <c r="D9" s="5">
-        <v>19.402999999999999</v>
-      </c>
-      <c r="F9" s="6">
-        <v>15.346500000000001</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="B9" s="7">
+        <v>27.295</v>
+      </c>
+      <c r="C9" s="7">
+        <v>18.815</v>
+      </c>
+      <c r="D9" s="7">
+        <v>19.403</v>
+      </c>
+      <c r="F9" s="8">
+        <v>15.3465</v>
+      </c>
+      <c r="G9" s="8">
         <v>12.1733192889342</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>2008</v>
       </c>
-      <c r="B10" s="5">
-        <v>34.094999999999999</v>
-      </c>
-      <c r="C10" s="5">
-        <v>27.414999999999999</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="7">
+        <v>34.095</v>
+      </c>
+      <c r="C10" s="7">
+        <v>27.415</v>
+      </c>
+      <c r="D10" s="7">
         <v>23.1633</v>
       </c>
-      <c r="F10" s="6">
-        <v>16.779499999999999</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="8">
+        <v>16.7795</v>
+      </c>
+      <c r="G10" s="8">
         <v>12.6804748829794</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>2009</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>36.195</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>34.195</v>
       </c>
-      <c r="D11" s="5">
-        <v>24.585082568807302</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20.014500000000002</v>
-      </c>
-      <c r="G11" s="6">
-        <v>12.703331583876899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="D11" s="7">
+        <v>24.5850825688073</v>
+      </c>
+      <c r="F11" s="8">
+        <v>20.0145</v>
+      </c>
+      <c r="G11" s="8">
+        <v>12.7033315838769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
         <v>2010</v>
       </c>
-      <c r="B12" s="5">
-        <v>43.164999999999999</v>
-      </c>
-      <c r="C12" s="5">
-        <v>36.395000000000003</v>
-      </c>
-      <c r="D12" s="5">
-        <v>29.344675104146699</v>
-      </c>
-      <c r="F12" s="6">
-        <v>22.485499999999998</v>
-      </c>
-      <c r="G12" s="6">
-        <v>15.548856811882899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="7">
+        <v>43.165</v>
+      </c>
+      <c r="C12" s="7">
+        <v>36.395</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29.3446751041467</v>
+      </c>
+      <c r="F12" s="8">
+        <v>22.4855</v>
+      </c>
+      <c r="G12" s="8">
+        <v>15.5488568118829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
         <v>2011</v>
       </c>
-      <c r="B13" s="5">
-        <v>51.494999999999997</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="7">
+        <v>51.495</v>
+      </c>
+      <c r="C13" s="7">
         <v>43.6</v>
       </c>
-      <c r="D13" s="5">
-        <v>33.701154657936897</v>
-      </c>
-      <c r="F13" s="6">
-        <v>24.797999999999998</v>
-      </c>
-      <c r="G13" s="6">
-        <v>17.345364638633399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="D13" s="7">
+        <v>33.7011546579369</v>
+      </c>
+      <c r="F13" s="8">
+        <v>24.798</v>
+      </c>
+      <c r="G13" s="8">
+        <v>17.3453646386334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
         <v>2012</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>59.69</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>52.26</v>
       </c>
-      <c r="D14" s="5">
-        <v>40.985999999999997</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="D14" s="7">
+        <v>40.986</v>
+      </c>
+      <c r="F14" s="8">
         <v>30.35</v>
       </c>
-      <c r="G14" s="6">
-        <v>22.719699596917302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="G14" s="8">
+        <v>22.7196995969173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
         <v>2013</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>64.12</v>
       </c>
-      <c r="C15" s="5">
-        <v>63.405000000000001</v>
-      </c>
-      <c r="D15" s="5">
-        <v>48.064999999999998</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="C15" s="7">
+        <v>63.405</v>
+      </c>
+      <c r="D15" s="7">
+        <v>48.065</v>
+      </c>
+      <c r="F15" s="8">
         <v>36.75</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="8">
         <v>24.5809559838411</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
         <v>2014</v>
       </c>
-      <c r="B16" s="5">
-        <v>68.319999999999993</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <v>50.658000000000001</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="B16" s="7">
+        <v>68.32</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>50.658</v>
+      </c>
+      <c r="F16" s="8">
         <v>39.5</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <v>26.5442497897503</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>2015</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>73.37</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
-        <v>56.162999999999997</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>56.163</v>
+      </c>
+      <c r="F17" s="8">
         <v>41.7</v>
       </c>
-      <c r="G17" s="6">
-        <v>30.693000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="G17" s="8">
+        <v>30.693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>2016</v>
       </c>
-      <c r="B18" s="5">
-        <v>76.569999999999993</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7">
-        <v>60.898000000000003</v>
-      </c>
-      <c r="F18" s="11">
-        <v>44.859000000000002</v>
-      </c>
-      <c r="G18" s="6">
-        <v>32.465000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>76.57</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9">
+        <v>60.898</v>
+      </c>
+      <c r="F18" s="10">
+        <v>44.859</v>
+      </c>
+      <c r="G18" s="8">
+        <v>32.465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>82.6</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
         <v>69.02</v>
       </c>
-      <c r="F19" s="9">
-        <v>46.932000000000002</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="2">
+        <v>46.932</v>
+      </c>
+      <c r="G19" s="2">
         <v>36.6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>86.2</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3">
+      <c r="C20" s="11"/>
+      <c r="D20" s="1">
         <v>70.8</v>
       </c>
-      <c r="F20" s="9">
-        <v>45.954999999999998</v>
+      <c r="F20" s="2">
+        <v>45.955</v>
       </c>
       <c r="G20" s="12">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>88.82</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="3">
+      <c r="C21" s="11"/>
+      <c r="D21" s="1">
         <v>70.81</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="2">
         <v>43.9</v>
       </c>
       <c r="G21" s="12">
         <v>35.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>92.82</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="3">
+      <c r="C22" s="11"/>
+      <c r="D22" s="1">
         <v>73.5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="2">
         <v>44.35</v>
       </c>
       <c r="G22" s="12">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2021</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>96.22</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="C23" s="11"/>
+      <c r="D23" s="1">
+        <v>76.9</v>
+      </c>
+      <c r="F23" s="2">
         <v>44.8</v>
       </c>
       <c r="G23" s="12">
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2022</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>100.32</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="3">
+      <c r="C24" s="11"/>
+      <c r="D24" s="1">
         <v>79.3</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="2">
         <v>45.1</v>
       </c>
       <c r="G24" s="12">
@@ -904,5 +1481,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>